--- a/biology/Botanique/Clematis_patens_'Evipo027'/Clematis_patens_'Evipo027'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo027'/Clematis_patens_'Evipo027'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo027%27</t>
+          <t>Clematis_patens_'Evipo027'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Evipo027' est un cultivar de clématite obtenu en 2011 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Abilène 'Evipo027'.
-Ce cultivar a été présenté au Chelsea Flower Show de 2011 par les pépinières de Raymond Evison, Guernsey clematis nursery et Thorncroft nursery clematis[1].
+Ce cultivar a été présenté au Chelsea Flower Show de 2011 par les pépinières de Raymond Evison, Guernsey clematis nursery et Thorncroft nursery clematis.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo027%27</t>
+          <t>Clematis_patens_'Evipo027'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,23 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui signifie que ce cultivar donnera une floraison printanière sur la pousse de l'année précédente et une seconde à l'automne sur les pousses de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm[2]. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
-Tiges
-Les tiges de la clématite Abilène apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
-Fleurs
-La clématite Abilène dispose d'une fleur de grande taille rose clair avec une médiane beaucoup plus foncée pouvant atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au rose pale.
-Bouton floral et pédoncule
-Le bouton floral de Abilène est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 millimètres de couleur verte également[3].
-Sépales
-Le sépale de la clématite Abilène mesure entre 6 et 8 cm de long, plat puis légèrement recourbé vers l’extérieur[4]. Sur cette clématite les sépales se comptent au nombre de 8 habituellement.
-Étamines et stigmates
-Abilène possèdent des étamines de couleur jaune, les stigmates sont de couleur jaune crémeux à l'ouverture de la fleur puis jaune d'or à maturité[4].
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -539,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo027%27</t>
+          <t>Clematis_patens_'Evipo027'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne elles mesurent 10 cm. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
 </t>
         </is>
       </c>
@@ -570,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo027%27</t>
+          <t>Clematis_patens_'Evipo027'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo027' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Abilène' est protégé par une licence trademark.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Abilène apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
 </t>
         </is>
       </c>
@@ -601,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo027%27</t>
+          <t>Clematis_patens_'Evipo027'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,25 +628,507 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Abilène dispose d'une fleur de grande taille rose clair avec une médiane beaucoup plus foncée pouvant atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au rose pale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Abilène est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 millimètres de couleur verte également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sépale de la clématite Abilène mesure entre 6 et 8 cm de long, plat puis légèrement recourbé vers l’extérieur. Sur cette clématite les sépales se comptent au nombre de 8 habituellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abilène possèdent des étamines de couleur jaune, les stigmates sont de couleur jaune crémeux à l'ouverture de la fleur puis jaune d'or à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo027' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Abilène' est protégé par une licence trademark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Abilène s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance importante entre 2.50 et 3 mètres[2].
-Floraison
-Abilène fleurit deux fois par an sur la pousse de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2[2].
-Utilisations
-Abilène est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Taille
-La clématite Abilène a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite Abilène est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Abilène s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance importante entre 2.50 et 3 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abilène fleurit deux fois par an sur la pousse de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abilène est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Abilène a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo027'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo027%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Abilène est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
